--- a/data/pca/factorExposure/factorExposure_2012-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-04.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01972923936889689</v>
+        <v>0.01926924590482158</v>
       </c>
       <c r="C2">
-        <v>-0.03418217034849555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0265627334583638</v>
+      </c>
+      <c r="D2">
+        <v>0.003963055894974022</v>
+      </c>
+      <c r="E2">
+        <v>-0.02204415721454986</v>
+      </c>
+      <c r="F2">
+        <v>0.01041080628406335</v>
+      </c>
+      <c r="G2">
+        <v>-0.01174023794964797</v>
+      </c>
+      <c r="H2">
+        <v>0.04894414418957786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07511206911594168</v>
+        <v>0.08422291878742036</v>
       </c>
       <c r="C4">
-        <v>-0.05857801304381883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03829213710610273</v>
+      </c>
+      <c r="D4">
+        <v>-0.06965569899352546</v>
+      </c>
+      <c r="E4">
+        <v>-0.001345216461622121</v>
+      </c>
+      <c r="F4">
+        <v>0.03035365478382193</v>
+      </c>
+      <c r="G4">
+        <v>-0.001305645542106184</v>
+      </c>
+      <c r="H4">
+        <v>-0.03889714672929407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1047129137334777</v>
+        <v>0.1192991934013509</v>
       </c>
       <c r="C6">
-        <v>-0.05797252133612085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03546965164778581</v>
+      </c>
+      <c r="D6">
+        <v>-0.009777614696219404</v>
+      </c>
+      <c r="E6">
+        <v>0.005549373521303446</v>
+      </c>
+      <c r="F6">
+        <v>0.05909306119293707</v>
+      </c>
+      <c r="G6">
+        <v>-0.01412862626577819</v>
+      </c>
+      <c r="H6">
+        <v>0.06726428147402873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04917410728719031</v>
+        <v>0.06057234783402652</v>
       </c>
       <c r="C7">
-        <v>-0.02793290684515423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01887289825900648</v>
+      </c>
+      <c r="D7">
+        <v>-0.04289936982188943</v>
+      </c>
+      <c r="E7">
+        <v>-0.02151329497438208</v>
+      </c>
+      <c r="F7">
+        <v>0.03782855631211336</v>
+      </c>
+      <c r="G7">
+        <v>0.03816119825003541</v>
+      </c>
+      <c r="H7">
+        <v>-0.02162634343923889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03656818068793217</v>
+        <v>0.03915255669010161</v>
       </c>
       <c r="C8">
-        <v>-0.01762254016907402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.008600361798841218</v>
+      </c>
+      <c r="D8">
+        <v>-0.03367014582362828</v>
+      </c>
+      <c r="E8">
+        <v>-0.009581845100080626</v>
+      </c>
+      <c r="F8">
+        <v>0.04333612828004459</v>
+      </c>
+      <c r="G8">
+        <v>-0.03305875218529717</v>
+      </c>
+      <c r="H8">
+        <v>0.008570312110684672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06834755641201203</v>
+        <v>0.07626542041323375</v>
       </c>
       <c r="C9">
-        <v>-0.04676207628610227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02769559501522583</v>
+      </c>
+      <c r="D9">
+        <v>-0.06342773250991494</v>
+      </c>
+      <c r="E9">
+        <v>-0.02175566883938349</v>
+      </c>
+      <c r="F9">
+        <v>0.03941051556789898</v>
+      </c>
+      <c r="G9">
+        <v>-0.005513143693574476</v>
+      </c>
+      <c r="H9">
+        <v>-0.05427536962770733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02952791997655326</v>
+        <v>0.03637731873183556</v>
       </c>
       <c r="C10">
-        <v>-0.033888709677111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03827206426165621</v>
+      </c>
+      <c r="D10">
+        <v>0.1708941926244248</v>
+      </c>
+      <c r="E10">
+        <v>-0.04290659271544823</v>
+      </c>
+      <c r="F10">
+        <v>0.04386191251978821</v>
+      </c>
+      <c r="G10">
+        <v>0.04192037971842672</v>
+      </c>
+      <c r="H10">
+        <v>0.04002972549116839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0699620455964884</v>
+        <v>0.07537633158088404</v>
       </c>
       <c r="C11">
-        <v>-0.04933504074922715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02876765920163675</v>
+      </c>
+      <c r="D11">
+        <v>-0.06222680856586</v>
+      </c>
+      <c r="E11">
+        <v>0.01225927655865197</v>
+      </c>
+      <c r="F11">
+        <v>0.02531485329001905</v>
+      </c>
+      <c r="G11">
+        <v>0.00375785135534278</v>
+      </c>
+      <c r="H11">
+        <v>-0.08762337111291242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0568125948717316</v>
+        <v>0.06458863378006706</v>
       </c>
       <c r="C12">
-        <v>-0.0512787164858897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03537872998326014</v>
+      </c>
+      <c r="D12">
+        <v>-0.04533186529142663</v>
+      </c>
+      <c r="E12">
+        <v>-0.008268243590038121</v>
+      </c>
+      <c r="F12">
+        <v>0.01917591021208394</v>
+      </c>
+      <c r="G12">
+        <v>-0.002194587523755568</v>
+      </c>
+      <c r="H12">
+        <v>-0.05193294343305921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06156867015770733</v>
+        <v>0.064122491374762</v>
       </c>
       <c r="C13">
-        <v>-0.0435986146319854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02507863149699876</v>
+      </c>
+      <c r="D13">
+        <v>-0.03939009946109964</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003591646615058318</v>
+      </c>
+      <c r="F13">
+        <v>0.002520179408357512</v>
+      </c>
+      <c r="G13">
+        <v>0.000839056720344511</v>
+      </c>
+      <c r="H13">
+        <v>-0.05536548794924196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03193119758509482</v>
+        <v>0.04008743602633157</v>
       </c>
       <c r="C14">
-        <v>-0.03134908539450705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02535856987063773</v>
+      </c>
+      <c r="D14">
+        <v>-0.006428970604351993</v>
+      </c>
+      <c r="E14">
+        <v>-0.02256571474715854</v>
+      </c>
+      <c r="F14">
+        <v>0.01823061692122674</v>
+      </c>
+      <c r="G14">
+        <v>-0.01458891318815466</v>
+      </c>
+      <c r="H14">
+        <v>-0.06008327133003957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03870893099795445</v>
+        <v>0.03949651861490319</v>
       </c>
       <c r="C15">
-        <v>-0.01147518241779551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003023215392129656</v>
+      </c>
+      <c r="D15">
+        <v>-0.005227816498625618</v>
+      </c>
+      <c r="E15">
+        <v>-0.04105379908288059</v>
+      </c>
+      <c r="F15">
+        <v>0.001415814537972091</v>
+      </c>
+      <c r="G15">
+        <v>-0.02605578958134143</v>
+      </c>
+      <c r="H15">
+        <v>-0.04846525906224733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05939482960734803</v>
+        <v>0.06728696798799706</v>
       </c>
       <c r="C16">
-        <v>-0.042919704708509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02766588208851014</v>
+      </c>
+      <c r="D16">
+        <v>-0.06116569201635041</v>
+      </c>
+      <c r="E16">
+        <v>-0.0009987512355486678</v>
+      </c>
+      <c r="F16">
+        <v>0.02449140101978748</v>
+      </c>
+      <c r="G16">
+        <v>0.001368922133001036</v>
+      </c>
+      <c r="H16">
+        <v>-0.0537536735865971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06422770460332021</v>
+        <v>0.06358249857247056</v>
       </c>
       <c r="C20">
-        <v>-0.03444365728387295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01435794801532382</v>
+      </c>
+      <c r="D20">
+        <v>-0.04997170634576046</v>
+      </c>
+      <c r="E20">
+        <v>-0.01751320772213293</v>
+      </c>
+      <c r="F20">
+        <v>0.02360556960208066</v>
+      </c>
+      <c r="G20">
+        <v>-0.001547920001485289</v>
+      </c>
+      <c r="H20">
+        <v>-0.05440114218988658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02380995871543804</v>
+        <v>0.02433554473686508</v>
       </c>
       <c r="C21">
-        <v>-0.0006728687227782726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.007543307794424805</v>
+      </c>
+      <c r="D21">
+        <v>-0.03738695824097314</v>
+      </c>
+      <c r="E21">
+        <v>-0.07620739531366728</v>
+      </c>
+      <c r="F21">
+        <v>-0.01138178744419632</v>
+      </c>
+      <c r="G21">
+        <v>-0.004551811102298881</v>
+      </c>
+      <c r="H21">
+        <v>0.03655745590306927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07423530799585842</v>
+        <v>0.06675951777325786</v>
       </c>
       <c r="C22">
-        <v>-0.06005369654866698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03277668200768542</v>
+      </c>
+      <c r="D22">
+        <v>-0.09797486532765726</v>
+      </c>
+      <c r="E22">
+        <v>-0.613860531657435</v>
+      </c>
+      <c r="F22">
+        <v>-0.1201947512969368</v>
+      </c>
+      <c r="G22">
+        <v>0.03371746426001652</v>
+      </c>
+      <c r="H22">
+        <v>0.1404597411813631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0752141456505976</v>
+        <v>0.06730621777916605</v>
       </c>
       <c r="C23">
-        <v>-0.0590788637016826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03156928546159386</v>
+      </c>
+      <c r="D23">
+        <v>-0.09874132335232388</v>
+      </c>
+      <c r="E23">
+        <v>-0.6129326074286277</v>
+      </c>
+      <c r="F23">
+        <v>-0.1193299609515771</v>
+      </c>
+      <c r="G23">
+        <v>0.03210261168144815</v>
+      </c>
+      <c r="H23">
+        <v>0.1356967363958907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06878136116939892</v>
+        <v>0.07740219269273509</v>
       </c>
       <c r="C24">
-        <v>-0.05173849660027979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03302213584588176</v>
+      </c>
+      <c r="D24">
+        <v>-0.05928971556735087</v>
+      </c>
+      <c r="E24">
+        <v>-0.009082325059347637</v>
+      </c>
+      <c r="F24">
+        <v>0.03418331509863779</v>
+      </c>
+      <c r="G24">
+        <v>-0.00776895153395166</v>
+      </c>
+      <c r="H24">
+        <v>-0.06402265844958661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.06971527044785333</v>
+        <v>0.07533397169403949</v>
       </c>
       <c r="C25">
-        <v>-0.0580361287177454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03767518014500381</v>
+      </c>
+      <c r="D25">
+        <v>-0.05490843003271367</v>
+      </c>
+      <c r="E25">
+        <v>-0.01098080896824306</v>
+      </c>
+      <c r="F25">
+        <v>0.02863005892896903</v>
+      </c>
+      <c r="G25">
+        <v>-0.02085413793264826</v>
+      </c>
+      <c r="H25">
+        <v>-0.06781547634323806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04181012215029723</v>
+        <v>0.04622922243192926</v>
       </c>
       <c r="C26">
-        <v>-0.01035632910759076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.002201199274067784</v>
+      </c>
+      <c r="D26">
+        <v>-0.02622710746579775</v>
+      </c>
+      <c r="E26">
+        <v>-0.03749635546070031</v>
+      </c>
+      <c r="F26">
+        <v>0.02471537344406743</v>
+      </c>
+      <c r="G26">
+        <v>0.004240390232576005</v>
+      </c>
+      <c r="H26">
+        <v>-0.06347280369093646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05824427255980001</v>
+        <v>0.07243319233949369</v>
       </c>
       <c r="C28">
-        <v>-0.07410837416159785</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07862979703060988</v>
+      </c>
+      <c r="D28">
+        <v>0.3145637488023275</v>
+      </c>
+      <c r="E28">
+        <v>-0.03426980655974254</v>
+      </c>
+      <c r="F28">
+        <v>0.05691766124058392</v>
+      </c>
+      <c r="G28">
+        <v>-0.02481172982070421</v>
+      </c>
+      <c r="H28">
+        <v>0.01287879779337175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03997785844935033</v>
+        <v>0.04689879622453856</v>
       </c>
       <c r="C29">
-        <v>-0.03049265841185364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0231418046745568</v>
+      </c>
+      <c r="D29">
+        <v>-0.007090768326275046</v>
+      </c>
+      <c r="E29">
+        <v>-0.0449756733496559</v>
+      </c>
+      <c r="F29">
+        <v>0.009084248105957015</v>
+      </c>
+      <c r="G29">
+        <v>0.003640889437730894</v>
+      </c>
+      <c r="H29">
+        <v>-0.09094781886604014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1233884984282999</v>
+        <v>0.1317000347485729</v>
       </c>
       <c r="C30">
-        <v>-0.09365170091670627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.05652773026781979</v>
+      </c>
+      <c r="D30">
+        <v>-0.08551575967077735</v>
+      </c>
+      <c r="E30">
+        <v>-0.04224035510733519</v>
+      </c>
+      <c r="F30">
+        <v>0.006955054706411143</v>
+      </c>
+      <c r="G30">
+        <v>-0.04079994646195614</v>
+      </c>
+      <c r="H30">
+        <v>0.03123158569680712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04114723469697064</v>
+        <v>0.04592489794794333</v>
       </c>
       <c r="C31">
-        <v>-0.01960617611071616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.009967194085560826</v>
+      </c>
+      <c r="D31">
+        <v>-0.02374074397646043</v>
+      </c>
+      <c r="E31">
+        <v>-0.02405896614544511</v>
+      </c>
+      <c r="F31">
+        <v>0.01357845594193653</v>
+      </c>
+      <c r="G31">
+        <v>0.016560035770285</v>
+      </c>
+      <c r="H31">
+        <v>-0.07476676003647056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03461117191118787</v>
+        <v>0.03587522737358181</v>
       </c>
       <c r="C32">
-        <v>-0.0227720620473588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01415263615071169</v>
+      </c>
+      <c r="D32">
+        <v>-0.01772538593377064</v>
+      </c>
+      <c r="E32">
+        <v>-0.06875636395006056</v>
+      </c>
+      <c r="F32">
+        <v>0.001583462280748166</v>
+      </c>
+      <c r="G32">
+        <v>-0.03048244296366709</v>
+      </c>
+      <c r="H32">
+        <v>-0.04477934980446154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0790462427899235</v>
+        <v>0.09462069552621045</v>
       </c>
       <c r="C33">
-        <v>-0.04220301720052852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02505372072856769</v>
+      </c>
+      <c r="D33">
+        <v>-0.05585610738160227</v>
+      </c>
+      <c r="E33">
+        <v>-0.01636948260727299</v>
+      </c>
+      <c r="F33">
+        <v>0.008451921104752123</v>
+      </c>
+      <c r="G33">
+        <v>0.01142040585501439</v>
+      </c>
+      <c r="H33">
+        <v>-0.07167039886345235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05534025826476655</v>
+        <v>0.05942197654535834</v>
       </c>
       <c r="C34">
-        <v>-0.032996529836331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01653111608189794</v>
+      </c>
+      <c r="D34">
+        <v>-0.05596189459612913</v>
+      </c>
+      <c r="E34">
+        <v>-0.002204269688454379</v>
+      </c>
+      <c r="F34">
+        <v>0.01591671124608052</v>
+      </c>
+      <c r="G34">
+        <v>-0.008292340205113807</v>
+      </c>
+      <c r="H34">
+        <v>-0.05140003420726393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03732799107596158</v>
+        <v>0.04091726804570731</v>
       </c>
       <c r="C35">
-        <v>-0.0113905999578742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003355527472107323</v>
+      </c>
+      <c r="D35">
+        <v>-0.01010743511113139</v>
+      </c>
+      <c r="E35">
+        <v>-0.0220313233185118</v>
+      </c>
+      <c r="F35">
+        <v>-0.00574262125991322</v>
+      </c>
+      <c r="G35">
+        <v>0.01069877218606887</v>
+      </c>
+      <c r="H35">
+        <v>-0.03736661437922224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01923740984075645</v>
+        <v>0.02597143633725463</v>
       </c>
       <c r="C36">
-        <v>-0.01615288426521928</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01221792516075018</v>
+      </c>
+      <c r="D36">
+        <v>-0.01706160917099576</v>
+      </c>
+      <c r="E36">
+        <v>-0.03864508704098758</v>
+      </c>
+      <c r="F36">
+        <v>0.01922396520135042</v>
+      </c>
+      <c r="G36">
+        <v>0.009172188956469712</v>
+      </c>
+      <c r="H36">
+        <v>-0.05362908840503908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03866789146647287</v>
+        <v>0.04241496717839853</v>
       </c>
       <c r="C38">
-        <v>-0.003946409024864638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002915513769459429</v>
+      </c>
+      <c r="D38">
+        <v>-0.01944209942485368</v>
+      </c>
+      <c r="E38">
+        <v>-0.05830644586851243</v>
+      </c>
+      <c r="F38">
+        <v>-0.006528820813614206</v>
+      </c>
+      <c r="G38">
+        <v>-0.01902712087380962</v>
+      </c>
+      <c r="H38">
+        <v>-0.02606208929857482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09199010506731146</v>
+        <v>0.1034255893233204</v>
       </c>
       <c r="C39">
-        <v>-0.07629016712545797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.0501905148303054</v>
+      </c>
+      <c r="D39">
+        <v>-0.07208389376548285</v>
+      </c>
+      <c r="E39">
+        <v>0.01399763969226307</v>
+      </c>
+      <c r="F39">
+        <v>0.01121720312306981</v>
+      </c>
+      <c r="G39">
+        <v>-0.02691263157389523</v>
+      </c>
+      <c r="H39">
+        <v>-0.05424477088738996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07401689947292127</v>
+        <v>0.0718266055312803</v>
       </c>
       <c r="C40">
-        <v>-0.04473211727531667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.02202147272659981</v>
+      </c>
+      <c r="D40">
+        <v>-0.004415564053656328</v>
+      </c>
+      <c r="E40">
+        <v>-0.02080026856062053</v>
+      </c>
+      <c r="F40">
+        <v>-0.0493952741925493</v>
+      </c>
+      <c r="G40">
+        <v>-0.06276395019872311</v>
+      </c>
+      <c r="H40">
+        <v>0.08264730460109702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03996402666926574</v>
+        <v>0.04283906872141591</v>
       </c>
       <c r="C41">
-        <v>-0.008253740443575667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.0001051318239400577</v>
+      </c>
+      <c r="D41">
+        <v>-0.03892686795037967</v>
+      </c>
+      <c r="E41">
+        <v>-0.007588199546079609</v>
+      </c>
+      <c r="F41">
+        <v>-0.01142398945112825</v>
+      </c>
+      <c r="G41">
+        <v>-0.01318478123938034</v>
+      </c>
+      <c r="H41">
+        <v>-0.03308840769208555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04585204079340714</v>
+        <v>0.05463110426750035</v>
       </c>
       <c r="C43">
-        <v>-0.02670953832950979</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01677144965701904</v>
+      </c>
+      <c r="D43">
+        <v>-0.02648176629578869</v>
+      </c>
+      <c r="E43">
+        <v>-0.01772563122273134</v>
+      </c>
+      <c r="F43">
+        <v>0.009012126687361613</v>
+      </c>
+      <c r="G43">
+        <v>0.005569948067467218</v>
+      </c>
+      <c r="H43">
+        <v>-0.04845404443642964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09443989701920645</v>
+        <v>0.09177958807919862</v>
       </c>
       <c r="C44">
-        <v>-0.09707696125489215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06384756219012511</v>
+      </c>
+      <c r="D44">
+        <v>-0.0636455014367522</v>
+      </c>
+      <c r="E44">
+        <v>-0.09380555947037136</v>
+      </c>
+      <c r="F44">
+        <v>0.04718092982126107</v>
+      </c>
+      <c r="G44">
+        <v>-0.03774879655885195</v>
+      </c>
+      <c r="H44">
+        <v>0.008513045748687423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02438133845678291</v>
+        <v>0.03202308995722685</v>
       </c>
       <c r="C46">
-        <v>-0.01500913684684021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01062228844947215</v>
+      </c>
+      <c r="D46">
+        <v>-0.03319914193081066</v>
+      </c>
+      <c r="E46">
+        <v>-0.02004530644145119</v>
+      </c>
+      <c r="F46">
+        <v>0.0197134243386452</v>
+      </c>
+      <c r="G46">
+        <v>-0.00441817533277713</v>
+      </c>
+      <c r="H46">
+        <v>-0.03774159746025365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02647177523973886</v>
+        <v>0.03367232682801224</v>
       </c>
       <c r="C47">
-        <v>-0.02118724083554699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01503721079452483</v>
+      </c>
+      <c r="D47">
+        <v>-0.01827873872586091</v>
+      </c>
+      <c r="E47">
+        <v>-0.04897403755202426</v>
+      </c>
+      <c r="F47">
+        <v>0.01582510441987509</v>
+      </c>
+      <c r="G47">
+        <v>0.03807523261451429</v>
+      </c>
+      <c r="H47">
+        <v>-0.03069028166864884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03059402133094171</v>
+        <v>0.03616513975166845</v>
       </c>
       <c r="C48">
-        <v>-0.01942236441022458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01144608874021426</v>
+      </c>
+      <c r="D48">
+        <v>-0.0279759481123711</v>
+      </c>
+      <c r="E48">
+        <v>-0.04132755033076481</v>
+      </c>
+      <c r="F48">
+        <v>0.007531620242154918</v>
+      </c>
+      <c r="G48">
+        <v>-0.01160487038852065</v>
+      </c>
+      <c r="H48">
+        <v>-0.05936386995142144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1626127425769448</v>
+        <v>0.1908185337310877</v>
       </c>
       <c r="C49">
-        <v>-0.0722676189484122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.04049664354786813</v>
+      </c>
+      <c r="D49">
+        <v>-0.01900918597891318</v>
+      </c>
+      <c r="E49">
+        <v>0.130073329241653</v>
+      </c>
+      <c r="F49">
+        <v>0.04294061348374215</v>
+      </c>
+      <c r="G49">
+        <v>0.06608835159928178</v>
+      </c>
+      <c r="H49">
+        <v>0.2308884269553446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03699945749001773</v>
+        <v>0.04475365966094991</v>
       </c>
       <c r="C50">
-        <v>-0.02391165670107643</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0168399667804539</v>
+      </c>
+      <c r="D50">
+        <v>-0.03598382690150812</v>
+      </c>
+      <c r="E50">
+        <v>-0.04799144194629403</v>
+      </c>
+      <c r="F50">
+        <v>0.02294500168890415</v>
+      </c>
+      <c r="G50">
+        <v>0.01217173796310464</v>
+      </c>
+      <c r="H50">
+        <v>-0.07251819483141834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02551287232371686</v>
+        <v>0.02646771365811585</v>
       </c>
       <c r="C51">
-        <v>-0.01180611648368987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0061738070019721</v>
+      </c>
+      <c r="D51">
+        <v>-0.02303652464744193</v>
+      </c>
+      <c r="E51">
+        <v>-0.01394115592124918</v>
+      </c>
+      <c r="F51">
+        <v>0.01022307431505587</v>
+      </c>
+      <c r="G51">
+        <v>-0.001322867898593175</v>
+      </c>
+      <c r="H51">
+        <v>0.001761141702938878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1468428056580373</v>
+        <v>0.1620566108397349</v>
       </c>
       <c r="C53">
-        <v>-0.0836375448013381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05436011014964188</v>
+      </c>
+      <c r="D53">
+        <v>-0.01943910253132115</v>
+      </c>
+      <c r="E53">
+        <v>0.03580272980993231</v>
+      </c>
+      <c r="F53">
+        <v>0.01430007719672677</v>
+      </c>
+      <c r="G53">
+        <v>-0.002424606722002204</v>
+      </c>
+      <c r="H53">
+        <v>-0.1551229904057299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05439266446789612</v>
+        <v>0.05631852958364524</v>
       </c>
       <c r="C54">
-        <v>-0.0257210465766336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01223921844449525</v>
+      </c>
+      <c r="D54">
+        <v>-0.02171662421878602</v>
+      </c>
+      <c r="E54">
+        <v>-0.04982035150666283</v>
+      </c>
+      <c r="F54">
+        <v>0.0134651762213156</v>
+      </c>
+      <c r="G54">
+        <v>-0.01749638561246682</v>
+      </c>
+      <c r="H54">
+        <v>-0.06273329343753203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0970973625640966</v>
+        <v>0.1018796695046193</v>
       </c>
       <c r="C55">
-        <v>-0.05753921470517081</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03594573257113397</v>
+      </c>
+      <c r="D55">
+        <v>-0.02541507681033224</v>
+      </c>
+      <c r="E55">
+        <v>-0.00923172837593925</v>
+      </c>
+      <c r="F55">
+        <v>0.01695886068421359</v>
+      </c>
+      <c r="G55">
+        <v>-0.01247130938791059</v>
+      </c>
+      <c r="H55">
+        <v>-0.1445782290227209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1452633699722865</v>
+        <v>0.1615256672575653</v>
       </c>
       <c r="C56">
-        <v>-0.09832752096279768</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06634693139238189</v>
+      </c>
+      <c r="D56">
+        <v>-0.01917093560776645</v>
+      </c>
+      <c r="E56">
+        <v>0.03689303017709467</v>
+      </c>
+      <c r="F56">
+        <v>0.03305584712850866</v>
+      </c>
+      <c r="G56">
+        <v>0.006916340040114731</v>
+      </c>
+      <c r="H56">
+        <v>-0.1614859362704679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.121686271423059</v>
+        <v>0.09880199797521619</v>
       </c>
       <c r="C58">
-        <v>-0.009748855853961805</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0314972397645471</v>
+      </c>
+      <c r="D58">
+        <v>-0.04883804790595579</v>
+      </c>
+      <c r="E58">
+        <v>-0.1797411453983151</v>
+      </c>
+      <c r="F58">
+        <v>0.02079981927568874</v>
+      </c>
+      <c r="G58">
+        <v>0.04455110163255904</v>
+      </c>
+      <c r="H58">
+        <v>0.1742269105977587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1155424289120526</v>
+        <v>0.1430675797463748</v>
       </c>
       <c r="C59">
-        <v>-0.07661266976723777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.07984610129355951</v>
+      </c>
+      <c r="D59">
+        <v>0.3608471634923587</v>
+      </c>
+      <c r="E59">
+        <v>-0.04472658422452288</v>
+      </c>
+      <c r="F59">
+        <v>0.007264091476971777</v>
+      </c>
+      <c r="G59">
+        <v>0.04283171971682866</v>
+      </c>
+      <c r="H59">
+        <v>0.001635857153776466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1975083467005318</v>
+        <v>0.2273648692211823</v>
       </c>
       <c r="C60">
-        <v>-0.1045023414207866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06672084930406322</v>
+      </c>
+      <c r="D60">
+        <v>-0.02569405983941639</v>
+      </c>
+      <c r="E60">
+        <v>0.07158561183090201</v>
+      </c>
+      <c r="F60">
+        <v>0.04895447099733628</v>
+      </c>
+      <c r="G60">
+        <v>-0.01665114872875484</v>
+      </c>
+      <c r="H60">
+        <v>0.1560794198863572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07835981228160629</v>
+        <v>0.08773326396205812</v>
       </c>
       <c r="C61">
-        <v>-0.0592587462836479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03939911661366212</v>
+      </c>
+      <c r="D61">
+        <v>-0.05280461448256379</v>
+      </c>
+      <c r="E61">
+        <v>0.01507981605068973</v>
+      </c>
+      <c r="F61">
+        <v>0.007641035909984711</v>
+      </c>
+      <c r="G61">
+        <v>0.005868618637638648</v>
+      </c>
+      <c r="H61">
+        <v>-0.06747443639072641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1256859856906612</v>
+        <v>0.1402213844302988</v>
       </c>
       <c r="C62">
-        <v>-0.07155087499640267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04525509277039627</v>
+      </c>
+      <c r="D62">
+        <v>-0.02416382100884312</v>
+      </c>
+      <c r="E62">
+        <v>0.05378558664355538</v>
+      </c>
+      <c r="F62">
+        <v>0.008324411260331215</v>
+      </c>
+      <c r="G62">
+        <v>-0.0371557796921766</v>
+      </c>
+      <c r="H62">
+        <v>-0.1574423914652389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05359875616478384</v>
+        <v>0.05222450408564012</v>
       </c>
       <c r="C63">
-        <v>-0.02976072860157655</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01490529386834192</v>
+      </c>
+      <c r="D63">
+        <v>-0.02579848155811395</v>
+      </c>
+      <c r="E63">
+        <v>-0.05077591473522442</v>
+      </c>
+      <c r="F63">
+        <v>0.004983125284515406</v>
+      </c>
+      <c r="G63">
+        <v>-0.03872156923132301</v>
+      </c>
+      <c r="H63">
+        <v>-0.0771648134200966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1103146501836643</v>
+        <v>0.1125459198089653</v>
       </c>
       <c r="C64">
-        <v>-0.03115290907707955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004834625798886109</v>
+      </c>
+      <c r="D64">
+        <v>-0.04339609627138992</v>
+      </c>
+      <c r="E64">
+        <v>-0.02498556346958168</v>
+      </c>
+      <c r="F64">
+        <v>0.05127278225493302</v>
+      </c>
+      <c r="G64">
+        <v>-0.03425928183604117</v>
+      </c>
+      <c r="H64">
+        <v>-0.07569199823873027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1188244614211743</v>
+        <v>0.1276996182850886</v>
       </c>
       <c r="C65">
-        <v>-0.05820135060259189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03421352830482315</v>
+      </c>
+      <c r="D65">
+        <v>-0.00152030041800202</v>
+      </c>
+      <c r="E65">
+        <v>-0.0001639103821247248</v>
+      </c>
+      <c r="F65">
+        <v>0.06638712233388801</v>
+      </c>
+      <c r="G65">
+        <v>-0.03618149728355137</v>
+      </c>
+      <c r="H65">
+        <v>0.07766300395309508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1403540385881483</v>
+        <v>0.1559100523957275</v>
       </c>
       <c r="C66">
-        <v>-0.08301399752473491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04823652084239972</v>
+      </c>
+      <c r="D66">
+        <v>-0.1108381945532846</v>
+      </c>
+      <c r="E66">
+        <v>0.04994241115282438</v>
+      </c>
+      <c r="F66">
+        <v>0.02132385969021805</v>
+      </c>
+      <c r="G66">
+        <v>-0.03291741705454568</v>
+      </c>
+      <c r="H66">
+        <v>-0.1223331834044046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0709055283600345</v>
+        <v>0.08027941554749379</v>
       </c>
       <c r="C67">
-        <v>-0.01705206562027238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00488915050890347</v>
+      </c>
+      <c r="D67">
+        <v>-0.03073309271567062</v>
+      </c>
+      <c r="E67">
+        <v>-0.02687161972045459</v>
+      </c>
+      <c r="F67">
+        <v>0.01334725487811187</v>
+      </c>
+      <c r="G67">
+        <v>0.003775870856800268</v>
+      </c>
+      <c r="H67">
+        <v>-0.02275368348128574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05890555615466964</v>
+        <v>0.06424685861890608</v>
       </c>
       <c r="C68">
-        <v>-0.04698803482365824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04962701118430152</v>
+      </c>
+      <c r="D68">
+        <v>0.2655103889170848</v>
+      </c>
+      <c r="E68">
+        <v>-0.04835541477637471</v>
+      </c>
+      <c r="F68">
+        <v>0.01446080488318493</v>
+      </c>
+      <c r="G68">
+        <v>0.01383263824222879</v>
+      </c>
+      <c r="H68">
+        <v>-0.02069460547611515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05110725803197758</v>
+        <v>0.05085101566288674</v>
       </c>
       <c r="C69">
-        <v>-0.02039508543045832</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.005300074978057705</v>
+      </c>
+      <c r="D69">
+        <v>-0.02123031392010553</v>
+      </c>
+      <c r="E69">
+        <v>-0.02574197606203661</v>
+      </c>
+      <c r="F69">
+        <v>-0.0038831869731365</v>
+      </c>
+      <c r="G69">
+        <v>0.01189819889724832</v>
+      </c>
+      <c r="H69">
+        <v>-0.05865777527428738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.00511754932857687</v>
+        <v>0.02431585794981412</v>
       </c>
       <c r="C70">
-        <v>0.003883570794175445</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0006325873175419975</v>
+      </c>
+      <c r="D70">
+        <v>-0.0007059504216697077</v>
+      </c>
+      <c r="E70">
+        <v>0.02610867762087892</v>
+      </c>
+      <c r="F70">
+        <v>0.01810207454783694</v>
+      </c>
+      <c r="G70">
+        <v>0.02296596368678135</v>
+      </c>
+      <c r="H70">
+        <v>0.05538445847781993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06024659561302727</v>
+        <v>0.06771755526802395</v>
       </c>
       <c r="C71">
-        <v>-0.04477451976415601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04966409873164101</v>
+      </c>
+      <c r="D71">
+        <v>0.2939715453799024</v>
+      </c>
+      <c r="E71">
+        <v>-0.04417324616905537</v>
+      </c>
+      <c r="F71">
+        <v>0.04400800901661624</v>
+      </c>
+      <c r="G71">
+        <v>0.005838926655903459</v>
+      </c>
+      <c r="H71">
+        <v>-0.01444375866778694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1383253155020321</v>
+        <v>0.1535884961972339</v>
       </c>
       <c r="C72">
-        <v>-0.06521775044514032</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03738601789346727</v>
+      </c>
+      <c r="D72">
+        <v>0.005321165936919755</v>
+      </c>
+      <c r="E72">
+        <v>0.08741936995650403</v>
+      </c>
+      <c r="F72">
+        <v>-0.1715036731023774</v>
+      </c>
+      <c r="G72">
+        <v>-0.1123865383083894</v>
+      </c>
+      <c r="H72">
+        <v>-0.0167584915448415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2601824853733891</v>
+        <v>0.2832158887998622</v>
       </c>
       <c r="C73">
-        <v>-0.1219890310195163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0602352663919889</v>
+      </c>
+      <c r="D73">
+        <v>-0.09571677250669698</v>
+      </c>
+      <c r="E73">
+        <v>0.2022334824970505</v>
+      </c>
+      <c r="F73">
+        <v>0.0834631684675697</v>
+      </c>
+      <c r="G73">
+        <v>0.2100095691589635</v>
+      </c>
+      <c r="H73">
+        <v>0.5371056372264499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07716516303498586</v>
+        <v>0.09043530527067331</v>
       </c>
       <c r="C74">
-        <v>-0.0791246727669447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05958081662059926</v>
+      </c>
+      <c r="D74">
+        <v>-0.03016511242589176</v>
+      </c>
+      <c r="E74">
+        <v>0.005839276597042049</v>
+      </c>
+      <c r="F74">
+        <v>-0.01193979563256728</v>
+      </c>
+      <c r="G74">
+        <v>0.031108955505755</v>
+      </c>
+      <c r="H74">
+        <v>-0.1274486706561588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09470715369649581</v>
+        <v>0.1030559150549473</v>
       </c>
       <c r="C75">
-        <v>-0.05453980777536942</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02883571144773979</v>
+      </c>
+      <c r="D75">
+        <v>-0.01174638259887939</v>
+      </c>
+      <c r="E75">
+        <v>-0.002623955056730762</v>
+      </c>
+      <c r="F75">
+        <v>0.04353453233632352</v>
+      </c>
+      <c r="G75">
+        <v>0.01349401404183758</v>
+      </c>
+      <c r="H75">
+        <v>-0.12084314628466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1251713389451676</v>
+        <v>0.1379844415136738</v>
       </c>
       <c r="C76">
-        <v>-0.09145716874482369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0607117683512458</v>
+      </c>
+      <c r="D76">
+        <v>-0.05369095742290587</v>
+      </c>
+      <c r="E76">
+        <v>-0.01162435597206494</v>
+      </c>
+      <c r="F76">
+        <v>0.05575703847758679</v>
+      </c>
+      <c r="G76">
+        <v>0.0007335738707665294</v>
+      </c>
+      <c r="H76">
+        <v>-0.1605348010627386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1248740026945129</v>
+        <v>0.1167545523733125</v>
       </c>
       <c r="C77">
-        <v>-0.03915727129600528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.00278619438368497</v>
+      </c>
+      <c r="D77">
+        <v>-0.01968283798713562</v>
+      </c>
+      <c r="E77">
+        <v>0.02367323619722897</v>
+      </c>
+      <c r="F77">
+        <v>0.2077018130857106</v>
+      </c>
+      <c r="G77">
+        <v>-0.8754916771444869</v>
+      </c>
+      <c r="H77">
+        <v>0.2028999745096795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09293173878553902</v>
+        <v>0.125287657262061</v>
       </c>
       <c r="C78">
-        <v>-0.04433445226917083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03112717506150121</v>
+      </c>
+      <c r="D78">
+        <v>-0.09049415956354406</v>
+      </c>
+      <c r="E78">
+        <v>-0.06157487903227195</v>
+      </c>
+      <c r="F78">
+        <v>0.01969640310040328</v>
+      </c>
+      <c r="G78">
+        <v>-0.03999324046953229</v>
+      </c>
+      <c r="H78">
+        <v>0.0976352115899386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1442356973230941</v>
+        <v>0.152602539316242</v>
       </c>
       <c r="C79">
-        <v>-0.08836284794102954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.05010205996518175</v>
+      </c>
+      <c r="D79">
+        <v>-0.02678621382039873</v>
+      </c>
+      <c r="E79">
+        <v>0.02026915915895259</v>
+      </c>
+      <c r="F79">
+        <v>0.0116141373486022</v>
+      </c>
+      <c r="G79">
+        <v>0.01438020829981729</v>
+      </c>
+      <c r="H79">
+        <v>-0.1615631972630788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04220312329883945</v>
+        <v>0.04261097122470466</v>
       </c>
       <c r="C80">
-        <v>-0.01701349494026927</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006109738561843651</v>
+      </c>
+      <c r="D80">
+        <v>-0.02635074649765048</v>
+      </c>
+      <c r="E80">
+        <v>0.004381990043283837</v>
+      </c>
+      <c r="F80">
+        <v>-0.01524432856701561</v>
+      </c>
+      <c r="G80">
+        <v>0.03686889394701177</v>
+      </c>
+      <c r="H80">
+        <v>-0.03635669937421228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1170873670064498</v>
+        <v>0.1209225737923909</v>
       </c>
       <c r="C81">
-        <v>-0.06750392567539369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03538621805619468</v>
+      </c>
+      <c r="D81">
+        <v>-0.02593801651982241</v>
+      </c>
+      <c r="E81">
+        <v>-0.001045770326684717</v>
+      </c>
+      <c r="F81">
+        <v>0.02096012437119649</v>
+      </c>
+      <c r="G81">
+        <v>0.04510297423258241</v>
+      </c>
+      <c r="H81">
+        <v>-0.1852401143525164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1254330570674068</v>
+        <v>0.1310118030449567</v>
       </c>
       <c r="C82">
-        <v>-0.07660706442172938</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04634715700384352</v>
+      </c>
+      <c r="D82">
+        <v>-0.02918504672967184</v>
+      </c>
+      <c r="E82">
+        <v>0.0161640955378007</v>
+      </c>
+      <c r="F82">
+        <v>0.05370607406503784</v>
+      </c>
+      <c r="G82">
+        <v>0.04536868493753112</v>
+      </c>
+      <c r="H82">
+        <v>-0.1834375961969924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07676407936859272</v>
+        <v>0.07999461032833323</v>
       </c>
       <c r="C83">
-        <v>-0.001928414275874288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01714888022421649</v>
+      </c>
+      <c r="D83">
+        <v>-0.03913035802135701</v>
+      </c>
+      <c r="E83">
+        <v>-0.009885191235089873</v>
+      </c>
+      <c r="F83">
+        <v>0.05155015631653196</v>
+      </c>
+      <c r="G83">
+        <v>0.08293800871026683</v>
+      </c>
+      <c r="H83">
+        <v>0.04830429621549109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02702383212724244</v>
+        <v>0.03998001940641988</v>
       </c>
       <c r="C84">
-        <v>-0.02279098120677812</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0190261473427032</v>
+      </c>
+      <c r="D84">
+        <v>-0.03753198321579109</v>
+      </c>
+      <c r="E84">
+        <v>-0.02330184968505478</v>
+      </c>
+      <c r="F84">
+        <v>-0.04800609673853357</v>
+      </c>
+      <c r="G84">
+        <v>0.06088961625378796</v>
+      </c>
+      <c r="H84">
+        <v>-0.01999442094960363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1198817381471317</v>
+        <v>0.1207565941100842</v>
       </c>
       <c r="C85">
-        <v>-0.06132252030572037</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02864113081751547</v>
+      </c>
+      <c r="D85">
+        <v>-0.02717647811930856</v>
+      </c>
+      <c r="E85">
+        <v>-0.003464729427957041</v>
+      </c>
+      <c r="F85">
+        <v>0.05083008041842418</v>
+      </c>
+      <c r="G85">
+        <v>0.01313579838074911</v>
+      </c>
+      <c r="H85">
+        <v>-0.1540368062125708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04994757412269672</v>
+        <v>0.05351251251130829</v>
       </c>
       <c r="C86">
-        <v>-0.01875540350298778</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006437076303325903</v>
+      </c>
+      <c r="D86">
+        <v>-0.02430289001332421</v>
+      </c>
+      <c r="E86">
+        <v>-0.0553647523791836</v>
+      </c>
+      <c r="F86">
+        <v>0.02569594567445763</v>
+      </c>
+      <c r="G86">
+        <v>0.006934055654274802</v>
+      </c>
+      <c r="H86">
+        <v>-0.01703593814278797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1204660173432382</v>
+        <v>0.1206369532721407</v>
       </c>
       <c r="C87">
-        <v>-0.07665554890926259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03854052432164879</v>
+      </c>
+      <c r="D87">
+        <v>-0.07221364715583092</v>
+      </c>
+      <c r="E87">
+        <v>-0.01579825931775587</v>
+      </c>
+      <c r="F87">
+        <v>0.01118383359396261</v>
+      </c>
+      <c r="G87">
+        <v>-0.1073935657618699</v>
+      </c>
+      <c r="H87">
+        <v>0.01082590315499771</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05442711373893348</v>
+        <v>0.05976283150391663</v>
       </c>
       <c r="C88">
-        <v>-0.02989715669300229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01751384585823451</v>
+      </c>
+      <c r="D88">
+        <v>-0.02471089677063864</v>
+      </c>
+      <c r="E88">
+        <v>-0.01719038061959105</v>
+      </c>
+      <c r="F88">
+        <v>0.008082992757985786</v>
+      </c>
+      <c r="G88">
+        <v>-0.01277323672973096</v>
+      </c>
+      <c r="H88">
+        <v>-0.05847419137134293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0849797435350428</v>
+        <v>0.1023985717136423</v>
       </c>
       <c r="C89">
-        <v>-0.06420432817155597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07020890769989091</v>
+      </c>
+      <c r="D89">
+        <v>0.3325818697737372</v>
+      </c>
+      <c r="E89">
+        <v>-0.07652134013785387</v>
+      </c>
+      <c r="F89">
+        <v>0.08128763562782199</v>
+      </c>
+      <c r="G89">
+        <v>0.02404300872574422</v>
+      </c>
+      <c r="H89">
+        <v>0.001115186493049696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07229660430101835</v>
+        <v>0.08400715290238715</v>
       </c>
       <c r="C90">
-        <v>-0.05642351778564312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06013438934263488</v>
+      </c>
+      <c r="D90">
+        <v>0.3047479213921456</v>
+      </c>
+      <c r="E90">
+        <v>-0.06293485328530929</v>
+      </c>
+      <c r="F90">
+        <v>0.009314037232101231</v>
+      </c>
+      <c r="G90">
+        <v>0.005151699665416004</v>
+      </c>
+      <c r="H90">
+        <v>-0.01048762728557547</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08193996691276839</v>
+        <v>0.08870710464766342</v>
       </c>
       <c r="C91">
-        <v>-0.0561625198311129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03418338221948052</v>
+      </c>
+      <c r="D91">
+        <v>-0.03059091643433593</v>
+      </c>
+      <c r="E91">
+        <v>-0.01310484483332954</v>
+      </c>
+      <c r="F91">
+        <v>0.00585745175588843</v>
+      </c>
+      <c r="G91">
+        <v>0.04708804235529132</v>
+      </c>
+      <c r="H91">
+        <v>-0.07488827298169541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08006584940724325</v>
+        <v>0.09267712633354863</v>
       </c>
       <c r="C92">
-        <v>-0.07243202241665292</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.07560050708415843</v>
+      </c>
+      <c r="D92">
+        <v>0.3425851517143477</v>
+      </c>
+      <c r="E92">
+        <v>-0.0549676315403454</v>
+      </c>
+      <c r="F92">
+        <v>0.03914436082440009</v>
+      </c>
+      <c r="G92">
+        <v>-0.003901595517097853</v>
+      </c>
+      <c r="H92">
+        <v>-0.01216216382046312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06782443241273148</v>
+        <v>0.08353716538784155</v>
       </c>
       <c r="C93">
-        <v>-0.05802392339244704</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06507393721151838</v>
+      </c>
+      <c r="D93">
+        <v>0.3062584361677171</v>
+      </c>
+      <c r="E93">
+        <v>-0.03696593355499155</v>
+      </c>
+      <c r="F93">
+        <v>0.04974812846836588</v>
+      </c>
+      <c r="G93">
+        <v>-0.005174586494237566</v>
+      </c>
+      <c r="H93">
+        <v>0.002985706561390705</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1299011800274497</v>
+        <v>0.1285766113444943</v>
       </c>
       <c r="C94">
-        <v>-0.06325269286666552</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02503976532669788</v>
+      </c>
+      <c r="D94">
+        <v>-0.04808451960481794</v>
+      </c>
+      <c r="E94">
+        <v>0.02097285479586827</v>
+      </c>
+      <c r="F94">
+        <v>0.02377076589163647</v>
+      </c>
+      <c r="G94">
+        <v>0.03937116369465448</v>
+      </c>
+      <c r="H94">
+        <v>-0.1071852804709202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1175141646169991</v>
+        <v>0.1254507888589139</v>
       </c>
       <c r="C95">
-        <v>-0.04121963215222205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.01118187533025617</v>
+      </c>
+      <c r="D95">
+        <v>-0.05858030276319378</v>
+      </c>
+      <c r="E95">
+        <v>0.007234311957710613</v>
+      </c>
+      <c r="F95">
+        <v>0.0388456972096664</v>
+      </c>
+      <c r="G95">
+        <v>0.0103181248650553</v>
+      </c>
+      <c r="H95">
+        <v>0.0178457221398325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2045547754630768</v>
+        <v>0.2165540604986955</v>
       </c>
       <c r="C97">
-        <v>-0.04958600365346681</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008576470300329719</v>
+      </c>
+      <c r="D97">
+        <v>0.07327334598296231</v>
+      </c>
+      <c r="E97">
+        <v>0.1496427244523657</v>
+      </c>
+      <c r="F97">
+        <v>-0.9014954210957921</v>
+      </c>
+      <c r="G97">
+        <v>-0.1479304238528314</v>
+      </c>
+      <c r="H97">
+        <v>0.01708255107524406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2454551380516146</v>
+        <v>0.2729978324171431</v>
       </c>
       <c r="C98">
-        <v>-0.09387016728762917</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04241956481612062</v>
+      </c>
+      <c r="D98">
+        <v>-0.06265584269786953</v>
+      </c>
+      <c r="E98">
+        <v>0.1594062246474822</v>
+      </c>
+      <c r="F98">
+        <v>0.04642639373013657</v>
+      </c>
+      <c r="G98">
+        <v>0.2867546147756201</v>
+      </c>
+      <c r="H98">
+        <v>0.22599271602942</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4781675814051827</v>
+        <v>0.28729254465954</v>
       </c>
       <c r="C99">
-        <v>0.8651683302831122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9406153827229294</v>
+      </c>
+      <c r="D99">
+        <v>0.09971003840292451</v>
+      </c>
+      <c r="E99">
+        <v>-0.04285056986742448</v>
+      </c>
+      <c r="F99">
+        <v>0.04937727678745407</v>
+      </c>
+      <c r="G99">
+        <v>0.01598434913430223</v>
+      </c>
+      <c r="H99">
+        <v>-0.05667854006287776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0400384530520275</v>
+        <v>0.04699093178785508</v>
       </c>
       <c r="C101">
-        <v>-0.0305047915900677</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02323838345909136</v>
+      </c>
+      <c r="D101">
+        <v>-0.007598353261119835</v>
+      </c>
+      <c r="E101">
+        <v>-0.04419634631256125</v>
+      </c>
+      <c r="F101">
+        <v>0.008497816229601156</v>
+      </c>
+      <c r="G101">
+        <v>0.003728155975344928</v>
+      </c>
+      <c r="H101">
+        <v>-0.09020246251373479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
